--- a/data/trans_orig/P42B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC519378-F441-471E-AA0D-CE811AE9240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0D5EF6-9B86-470B-83F7-A7559CDCA50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{244E3E48-EBAA-41B1-B565-17F8CE5ECD00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{004B114C-A9E4-4F72-B7C5-6CBE388D678B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="397">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,01%</t>
+    <t>19,12%</t>
   </si>
   <si>
     <t>Para realizar detección precoz de cáncer de útero</t>
@@ -92,13 +92,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>15,35%</t>
+    <t>15,44%</t>
   </si>
   <si>
     <t>Para realizar detección de cáncer de mama</t>
   </si>
   <si>
-    <t>23,83%</t>
+    <t>16,27%</t>
   </si>
   <si>
     <t>Para revisiones periódicas</t>
@@ -107,10 +107,10 @@
     <t>53,66%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -119,7 +119,7 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>15,73%</t>
+    <t>16,87%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -128,10 +128,10 @@
     <t>30,97%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,1078 +149,1087 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF102E5-8F00-4D34-A3A6-5DEE729EBD45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38760F9-F0E1-4AC8-9A90-4378332021C2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3250,10 +3259,10 @@
         <v>89</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3265,10 +3274,10 @@
         <v>89</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3305,13 @@
         <v>145698</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M35" s="7">
         <v>141</v>
@@ -3311,13 +3320,13 @@
         <v>145698</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3354,13 @@
         <v>16638</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -3360,13 +3369,13 @@
         <v>16638</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3403,13 @@
         <v>28789</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -3409,13 +3418,13 @@
         <v>28789</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3506,10 @@
         <v>87</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3512,10 +3521,10 @@
         <v>87</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3552,13 @@
         <v>13836</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M40" s="7">
         <v>14</v>
@@ -3558,13 +3567,13 @@
         <v>13836</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3601,13 @@
         <v>30624</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M41" s="7">
         <v>31</v>
@@ -3607,13 +3616,13 @@
         <v>30624</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3650,13 @@
         <v>484313</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M42" s="7">
         <v>474</v>
@@ -3656,13 +3665,13 @@
         <v>484313</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3699,13 @@
         <v>30820</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -3705,13 +3714,13 @@
         <v>30820</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3748,13 @@
         <v>92098</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M44" s="7">
         <v>91</v>
@@ -3754,13 +3763,13 @@
         <v>92098</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,7 +3823,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3835,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D8234A-F93E-4061-9B59-D2FA48C47F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41464F4-ECCF-42E6-BF07-92C370A56A6A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,13 +3981,13 @@
         <v>6990</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3987,13 +3996,13 @@
         <v>6990</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,7 +4036,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4042,7 +4051,7 @@
         <v>33</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4085,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4091,7 +4100,7 @@
         <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4128,13 @@
         <v>49959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4134,13 +4143,13 @@
         <v>49959</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4183,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4189,7 +4198,7 @@
         <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4226,13 @@
         <v>21512</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4232,13 +4241,13 @@
         <v>21512</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4326,13 @@
         <v>8845</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4332,13 +4341,13 @@
         <v>8845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4375,13 @@
         <v>6066</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4381,13 +4390,13 @@
         <v>6066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4424,13 @@
         <v>5262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4430,13 +4439,13 @@
         <v>5262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4473,13 @@
         <v>306469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>287</v>
@@ -4479,13 +4488,13 @@
         <v>306469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4522,13 @@
         <v>28391</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
@@ -4528,13 +4537,13 @@
         <v>28391</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4571,13 @@
         <v>83864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4577,13 +4586,13 @@
         <v>83864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4671,13 @@
         <v>7418</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -4677,13 +4686,13 @@
         <v>7418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4720,13 @@
         <v>5663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4726,13 +4735,13 @@
         <v>5663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4769,13 @@
         <v>11353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4775,13 +4784,13 @@
         <v>11353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4818,13 @@
         <v>557696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M21" s="7">
         <v>503</v>
@@ -4824,13 +4833,13 @@
         <v>557696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4867,13 @@
         <v>50441</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -4873,13 +4882,13 @@
         <v>50441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4916,13 @@
         <v>145305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -4922,13 +4931,13 @@
         <v>145305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5016,13 @@
         <v>10565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5022,13 +5031,13 @@
         <v>10565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5065,13 @@
         <v>3649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5071,13 +5080,13 @@
         <v>3649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5114,13 @@
         <v>10165</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5120,13 +5129,13 @@
         <v>10165</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5163,13 @@
         <v>486869</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -5169,13 +5178,13 @@
         <v>486869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5212,13 @@
         <v>30203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5218,13 +5227,13 @@
         <v>30203</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5261,13 @@
         <v>98139</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>90</v>
@@ -5267,13 +5276,13 @@
         <v>98139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5361,7 @@
         <v>9913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>181</v>
@@ -5367,7 +5376,7 @@
         <v>9913</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>181</v>
@@ -5404,10 +5413,10 @@
         <v>183</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -5419,10 +5428,10 @@
         <v>183</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +5459,10 @@
         <v>16189</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>187</v>
@@ -5465,10 +5474,10 @@
         <v>16189</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>187</v>
@@ -5697,13 +5706,13 @@
         <v>43730</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M39" s="7">
         <v>41</v>
@@ -5712,13 +5721,13 @@
         <v>43730</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5755,13 @@
         <v>25095</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M40" s="7">
         <v>24</v>
@@ -5761,13 +5770,13 @@
         <v>25095</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5804,13 @@
         <v>42969</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M41" s="7">
         <v>39</v>
@@ -5810,13 +5819,13 @@
         <v>42969</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5853,13 @@
         <v>1975725</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M42" s="7">
         <v>1810</v>
@@ -5859,13 +5868,13 @@
         <v>1975725</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5902,13 @@
         <v>161686</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M43" s="7">
         <v>150</v>
@@ -5908,13 +5917,13 @@
         <v>161686</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5951,13 @@
         <v>491062</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M44" s="7">
         <v>460</v>
@@ -5957,13 +5966,13 @@
         <v>491062</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,7 +6026,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6038,7 +6047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9022DBE-CB0F-4F93-9C76-3B8A52D9A861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413956E7-E412-4712-977D-AFAA9BDDFDC5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6055,7 +6064,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6175,13 +6184,13 @@
         <v>4639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6190,13 +6199,13 @@
         <v>4639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6233,13 @@
         <v>968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6239,13 +6248,13 @@
         <v>968</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6282,13 @@
         <v>1995</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6288,13 +6297,13 @@
         <v>1995</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6331,13 @@
         <v>53348</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -6337,13 +6346,13 @@
         <v>53348</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6380,13 @@
         <v>2372</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6386,13 +6395,13 @@
         <v>2372</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6429,13 @@
         <v>20378</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -6435,13 +6444,13 @@
         <v>20378</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6529,13 @@
         <v>9696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -6535,13 +6544,13 @@
         <v>9696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6584,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6590,7 +6599,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6627,13 @@
         <v>19110</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -6633,13 +6642,13 @@
         <v>19110</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6676,13 @@
         <v>278357</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -6682,13 +6691,13 @@
         <v>278357</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6725,13 @@
         <v>25430</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -6731,13 +6740,13 @@
         <v>25430</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6774,13 @@
         <v>79140</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -6780,13 +6789,13 @@
         <v>79140</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6874,13 @@
         <v>28915</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -6880,13 +6889,13 @@
         <v>28915</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,10 +6923,10 @@
         <v>2986</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>247</v>
@@ -6929,10 +6938,10 @@
         <v>2986</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>247</v>
@@ -6963,13 +6972,13 @@
         <v>33584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6978,13 +6987,13 @@
         <v>33584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +7021,13 @@
         <v>604896</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -7027,13 +7036,13 @@
         <v>604896</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7070,13 @@
         <v>52047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7076,13 +7085,13 @@
         <v>52047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7119,13 @@
         <v>123943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -7125,13 +7134,13 @@
         <v>123943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7219,13 @@
         <v>7653</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7225,13 +7234,13 @@
         <v>7653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,7 +7268,7 @@
         <v>4941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>262</v>
@@ -7274,7 +7283,7 @@
         <v>4941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>262</v>
@@ -7314,7 +7323,7 @@
         <v>265</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7329,7 +7338,7 @@
         <v>265</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7366,13 @@
         <v>514859</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>487</v>
@@ -7372,13 +7381,13 @@
         <v>514859</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7415,13 @@
         <v>33384</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -7421,13 +7430,13 @@
         <v>33384</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7464,13 @@
         <v>34566</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -7470,13 +7479,13 @@
         <v>34566</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,10 +7564,10 @@
         <v>19406</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>277</v>
@@ -7570,10 +7579,10 @@
         <v>19406</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>277</v>
@@ -7607,7 +7616,7 @@
         <v>278</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>279</v>
@@ -7622,7 +7631,7 @@
         <v>278</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>279</v>
@@ -7656,10 +7665,10 @@
         <v>280</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -7671,10 +7680,10 @@
         <v>280</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7711,13 @@
         <v>628308</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M35" s="7">
         <v>580</v>
@@ -7717,13 +7726,13 @@
         <v>628308</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7760,13 @@
         <v>33902</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -7766,13 +7775,13 @@
         <v>33902</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7809,13 @@
         <v>121359</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M37" s="7">
         <v>113</v>
@@ -7815,13 +7824,13 @@
         <v>121359</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7909,13 @@
         <v>70309</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="M39" s="7">
         <v>67</v>
@@ -7915,13 +7924,13 @@
         <v>70309</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7958,13 @@
         <v>15082</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -7964,13 +7973,13 @@
         <v>15082</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +8007,13 @@
         <v>88776</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>81</v>
@@ -8013,13 +8022,13 @@
         <v>88776</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8056,13 @@
         <v>2079768</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>1956</v>
@@ -8062,13 +8071,13 @@
         <v>2079768</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8105,13 @@
         <v>147136</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>146</v>
@@ -8111,13 +8120,13 @@
         <v>147136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8154,13 @@
         <v>379385</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M44" s="7">
         <v>362</v>
@@ -8160,13 +8169,13 @@
         <v>379385</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,7 +8229,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0C62D4-BD00-4D46-BF4B-E59E6348CD9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C82F401-A5F3-4FBC-9025-5A0C4251BD1B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8258,7 +8267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8378,13 +8387,13 @@
         <v>4667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -8393,13 +8402,13 @@
         <v>4667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,7 +8442,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8448,7 +8457,7 @@
         <v>33</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8476,13 +8485,13 @@
         <v>1602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8491,13 +8500,13 @@
         <v>1602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,13 +8534,13 @@
         <v>48992</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -8540,13 +8549,13 @@
         <v>48992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8574,13 +8583,13 @@
         <v>1461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -8589,13 +8598,13 @@
         <v>1461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8623,13 +8632,13 @@
         <v>12527</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -8638,13 +8647,13 @@
         <v>12527</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8732,13 @@
         <v>9360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -8738,13 +8747,13 @@
         <v>9360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,13 +8781,13 @@
         <v>807</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8787,13 +8796,13 @@
         <v>807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,13 +8830,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -8836,13 +8845,13 @@
         <v>20647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,13 +8879,13 @@
         <v>215461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -8885,13 +8894,13 @@
         <v>215461</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8919,13 +8928,13 @@
         <v>11404</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -8934,13 +8943,13 @@
         <v>11404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,13 +8977,13 @@
         <v>58593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -8983,13 +8992,13 @@
         <v>58593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9068,13 +9077,13 @@
         <v>45424</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -9083,13 +9092,13 @@
         <v>45424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,13 +9126,13 @@
         <v>8235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -9132,13 +9141,13 @@
         <v>8235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,13 +9175,13 @@
         <v>31263</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -9181,13 +9190,13 @@
         <v>31263</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9215,13 +9224,13 @@
         <v>397291</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>638</v>
@@ -9230,13 +9239,13 @@
         <v>397291</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9511,13 +9520,13 @@
         <v>3586</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -9526,13 +9535,13 @@
         <v>3586</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>354</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9560,13 +9569,13 @@
         <v>302496</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>444</v>
@@ -9575,13 +9584,13 @@
         <v>302496</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9609,10 +9618,10 @@
         <v>13213</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>359</v>
@@ -9624,10 +9633,10 @@
         <v>13213</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>359</v>
@@ -9764,7 +9773,7 @@
         <v>364</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -9779,7 +9788,7 @@
         <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9807,13 +9816,13 @@
         <v>662</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -9822,13 +9831,13 @@
         <v>662</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9856,13 +9865,13 @@
         <v>17283</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -9871,13 +9880,13 @@
         <v>17283</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9905,13 +9914,13 @@
         <v>512155</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M35" s="7">
         <v>723</v>
@@ -9920,13 +9929,13 @@
         <v>512155</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9954,13 +9963,13 @@
         <v>17960</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -9969,13 +9978,13 @@
         <v>17960</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10003,13 +10012,13 @@
         <v>103583</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M37" s="7">
         <v>144</v>
@@ -10018,13 +10027,13 @@
         <v>103583</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10103,13 +10112,13 @@
         <v>130305</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M39" s="7">
         <v>164</v>
@@ -10118,13 +10127,13 @@
         <v>130305</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10152,13 +10161,13 @@
         <v>12868</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M40" s="7">
         <v>17</v>
@@ -10167,13 +10176,13 @@
         <v>12868</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>181</v>
+        <v>383</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10201,13 +10210,13 @@
         <v>74381</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M41" s="7">
         <v>126</v>
@@ -10216,13 +10225,13 @@
         <v>74381</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10250,13 +10259,13 @@
         <v>1476396</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M42" s="7">
         <v>2316</v>
@@ -10265,13 +10274,13 @@
         <v>1476396</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10308,13 @@
         <v>64691</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="M43" s="7">
         <v>76</v>
@@ -10314,13 +10323,13 @@
         <v>64691</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10348,13 +10357,13 @@
         <v>340115</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M44" s="7">
         <v>463</v>
@@ -10363,13 +10372,13 @@
         <v>340115</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10423,7 +10432,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD0D5EF6-9B86-470B-83F7-A7559CDCA50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C392C74D-7829-47A7-8462-CD15C8B45362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{004B114C-A9E4-4F72-B7C5-6CBE388D678B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F986C4E-0D4E-492B-AAD9-2FD883BC7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="395">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otro motivo</t>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>19,44%</t>
   </si>
   <si>
     <t>Para realizar detección precoz de cáncer de útero</t>
@@ -92,13 +92,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>15,44%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>Para realizar detección de cáncer de mama</t>
   </si>
   <si>
-    <t>16,27%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>Para revisiones periódicas</t>
@@ -107,10 +107,10 @@
     <t>53,66%</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -119,7 +119,7 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>16,87%</t>
+    <t>16,58%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -128,16 +128,16 @@
     <t>30,97%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,28 +149,28 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>4,54%</t>
@@ -179,19 +179,19 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>11,6%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -203,897 +203,897 @@
     <t>0,59%</t>
   </si>
   <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
@@ -1130,9 +1130,6 @@
     <t>23,5%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
     <t>2,2%</t>
   </si>
   <si>
@@ -1215,9 +1212,6 @@
   </si>
   <si>
     <t>72,25%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -1641,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38760F9-F0E1-4AC8-9A90-4378332021C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79630E6C-718E-4DB9-9A3F-DB76E02E42AD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3509,7 +3503,7 @@
         <v>101</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3524,7 +3518,7 @@
         <v>101</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3546,13 @@
         <v>13836</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M40" s="7">
         <v>14</v>
@@ -3567,13 +3561,13 @@
         <v>13836</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3595,13 @@
         <v>30624</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M41" s="7">
         <v>31</v>
@@ -3616,13 +3610,13 @@
         <v>30624</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3644,13 @@
         <v>484313</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M42" s="7">
         <v>474</v>
@@ -3665,13 +3659,13 @@
         <v>484313</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3693,13 @@
         <v>30820</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M43" s="7">
         <v>27</v>
@@ -3714,13 +3708,13 @@
         <v>30820</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3742,13 @@
         <v>92098</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M44" s="7">
         <v>91</v>
@@ -3763,13 +3757,13 @@
         <v>92098</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3817,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41464F4-ECCF-42E6-BF07-92C370A56A6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C26A4-51A4-479E-B8A2-D54AD0AA77A1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +3975,13 @@
         <v>6990</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3996,13 +3990,13 @@
         <v>6990</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4030,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4051,7 +4045,7 @@
         <v>33</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,7 +4079,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4100,7 +4094,7 @@
         <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4122,13 @@
         <v>49959</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4143,13 +4137,13 @@
         <v>49959</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,7 +4177,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4198,7 +4192,7 @@
         <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4220,13 @@
         <v>21512</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4241,13 +4235,13 @@
         <v>21512</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4320,13 @@
         <v>8845</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4341,13 +4335,13 @@
         <v>8845</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4369,13 @@
         <v>6066</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4390,13 +4384,13 @@
         <v>6066</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4418,13 @@
         <v>5262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4439,13 +4433,13 @@
         <v>5262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4467,13 @@
         <v>306469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>287</v>
@@ -4488,13 +4482,13 @@
         <v>306469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4516,13 @@
         <v>28391</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
@@ -4537,13 +4531,13 @@
         <v>28391</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4565,13 @@
         <v>83864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4586,13 +4580,13 @@
         <v>83864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4665,13 @@
         <v>7418</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -4686,13 +4680,13 @@
         <v>7418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4714,13 @@
         <v>5663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4735,13 +4729,13 @@
         <v>5663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4763,13 @@
         <v>11353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4784,13 +4778,13 @@
         <v>11353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4812,13 @@
         <v>557696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>503</v>
@@ -4833,13 +4827,13 @@
         <v>557696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4861,13 @@
         <v>50441</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -4882,13 +4876,13 @@
         <v>50441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4910,13 @@
         <v>145305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -4931,13 +4925,13 @@
         <v>145305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5010,13 @@
         <v>10565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5031,13 +5025,13 @@
         <v>10565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5059,13 @@
         <v>3649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5080,13 +5074,13 @@
         <v>3649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5108,13 @@
         <v>10165</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5129,13 +5123,13 @@
         <v>10165</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5157,13 @@
         <v>486869</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -5178,13 +5172,13 @@
         <v>486869</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5206,13 @@
         <v>30203</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5227,13 +5221,13 @@
         <v>30203</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5255,13 @@
         <v>98139</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>90</v>
@@ -5276,13 +5270,13 @@
         <v>98139</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5355,13 @@
         <v>9913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -5376,13 +5370,13 @@
         <v>9913</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5404,13 @@
         <v>9717</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -5425,13 +5419,13 @@
         <v>9717</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5453,13 @@
         <v>16189</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -5474,13 +5468,13 @@
         <v>16189</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5502,13 @@
         <v>574733</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>544</v>
@@ -5523,13 +5517,13 @@
         <v>574733</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5551,13 @@
         <v>52650</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -5572,13 +5566,13 @@
         <v>52650</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5600,13 @@
         <v>142242</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M37" s="7">
         <v>137</v>
@@ -5621,13 +5615,13 @@
         <v>142242</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5700,13 @@
         <v>43730</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="K39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M39" s="7">
         <v>41</v>
@@ -5721,13 +5715,13 @@
         <v>43730</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5749,13 @@
         <v>25095</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="M40" s="7">
         <v>24</v>
@@ -5770,13 +5764,13 @@
         <v>25095</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5798,13 @@
         <v>42969</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M41" s="7">
         <v>39</v>
@@ -5819,13 +5813,13 @@
         <v>42969</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5847,13 @@
         <v>1975725</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M42" s="7">
         <v>1810</v>
@@ -5868,13 +5862,13 @@
         <v>1975725</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5896,13 @@
         <v>161686</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M43" s="7">
         <v>150</v>
@@ -5917,13 +5911,13 @@
         <v>161686</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5945,13 @@
         <v>491062</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M44" s="7">
         <v>460</v>
@@ -5966,13 +5960,13 @@
         <v>491062</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,7 +6020,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6047,7 +6041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413956E7-E412-4712-977D-AFAA9BDDFDC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFCF45-9ED6-4C2D-9EF6-CAC3007AD9C4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6064,7 +6058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6184,13 +6178,13 @@
         <v>4639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6199,13 +6193,13 @@
         <v>4639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6227,13 @@
         <v>968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6248,13 +6242,13 @@
         <v>968</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6276,13 @@
         <v>1995</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6297,13 +6291,13 @@
         <v>1995</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6325,13 @@
         <v>53348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -6346,13 +6340,13 @@
         <v>53348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6374,13 @@
         <v>2372</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6395,13 +6389,13 @@
         <v>2372</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6423,13 @@
         <v>20378</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -6444,13 +6438,13 @@
         <v>20378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6523,13 @@
         <v>9696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -6544,13 +6538,13 @@
         <v>9696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6578,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6599,7 +6593,7 @@
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6621,13 @@
         <v>19110</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -6642,13 +6636,13 @@
         <v>19110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6670,13 @@
         <v>278357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -6691,13 +6685,13 @@
         <v>278357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6719,13 @@
         <v>25430</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -6740,13 +6734,13 @@
         <v>25430</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6768,13 @@
         <v>79140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -6789,13 +6783,13 @@
         <v>79140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6868,13 @@
         <v>28915</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -6889,13 +6883,13 @@
         <v>28915</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6917,13 @@
         <v>2986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6938,13 +6932,13 @@
         <v>2986</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6966,13 @@
         <v>33584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6987,13 +6981,13 @@
         <v>33584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7015,13 @@
         <v>604896</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -7036,13 +7030,13 @@
         <v>604896</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,10 +7064,10 @@
         <v>52047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>255</v>
@@ -7085,10 +7079,10 @@
         <v>52047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>255</v>
@@ -7268,13 +7262,13 @@
         <v>4941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7283,13 +7277,13 @@
         <v>4941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7311,13 @@
         <v>9232</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7332,13 +7326,13 @@
         <v>9232</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,10 +7412,10 @@
         <v>269</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -7433,10 +7427,10 @@
         <v>269</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7458,13 @@
         <v>34566</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -7479,13 +7473,13 @@
         <v>34566</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7558,13 @@
         <v>19406</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -7579,13 +7573,13 @@
         <v>19406</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7607,13 @@
         <v>4259</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -7628,13 +7622,13 @@
         <v>4259</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>101</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7656,13 @@
         <v>24855</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -7677,13 +7671,13 @@
         <v>24855</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7705,13 @@
         <v>628308</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M35" s="7">
         <v>580</v>
@@ -7726,13 +7720,13 @@
         <v>628308</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7754,13 @@
         <v>33902</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -7775,13 +7769,13 @@
         <v>33902</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,13 +7803,13 @@
         <v>121359</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M37" s="7">
         <v>113</v>
@@ -7824,13 +7818,13 @@
         <v>121359</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,13 +7903,13 @@
         <v>70309</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>290</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="M39" s="7">
         <v>67</v>
@@ -7924,13 +7918,13 @@
         <v>70309</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>290</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7952,13 @@
         <v>15082</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -7973,13 +7967,13 @@
         <v>15082</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,13 +8001,13 @@
         <v>88776</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>81</v>
@@ -8022,13 +8016,13 @@
         <v>88776</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8050,13 @@
         <v>2079768</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>1956</v>
@@ -8071,13 +8065,13 @@
         <v>2079768</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8099,13 @@
         <v>147136</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="M43" s="7">
         <v>146</v>
@@ -8120,13 +8114,13 @@
         <v>147136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8148,13 @@
         <v>379385</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M44" s="7">
         <v>362</v>
@@ -8169,13 +8163,13 @@
         <v>379385</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,7 +8223,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -8250,7 +8244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C82F401-A5F3-4FBC-9025-5A0C4251BD1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718E61F0-C5D9-4971-B1F1-9E429C83EAA7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8267,7 +8261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8387,13 +8381,13 @@
         <v>4667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -8402,13 +8396,13 @@
         <v>4667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,7 +8436,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8457,7 +8451,7 @@
         <v>33</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8479,13 @@
         <v>1602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8500,13 +8494,13 @@
         <v>1602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,13 +8528,13 @@
         <v>48992</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -8549,13 +8543,13 @@
         <v>48992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8583,13 +8577,13 @@
         <v>1461</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -8598,13 +8592,13 @@
         <v>1461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8626,13 @@
         <v>12527</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -8647,13 +8641,13 @@
         <v>12527</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8726,13 @@
         <v>9360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -8747,13 +8741,13 @@
         <v>9360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8781,13 +8775,13 @@
         <v>807</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8796,13 +8790,13 @@
         <v>807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8824,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -8845,13 +8839,13 @@
         <v>20647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8879,13 +8873,13 @@
         <v>215461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -8894,13 +8888,13 @@
         <v>215461</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,13 +8922,13 @@
         <v>11404</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -8943,13 +8937,13 @@
         <v>11404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,13 +8971,13 @@
         <v>58593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -8992,13 +8986,13 @@
         <v>58593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9077,13 +9071,13 @@
         <v>45424</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -9092,13 +9086,13 @@
         <v>45424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,13 +9120,13 @@
         <v>8235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -9141,13 +9135,13 @@
         <v>8235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9175,10 +9169,10 @@
         <v>31263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>338</v>
@@ -9190,10 +9184,10 @@
         <v>31263</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>338</v>
@@ -9276,10 +9270,10 @@
         <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -9291,10 +9285,10 @@
         <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9322,13 +9316,13 @@
         <v>94494</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M23" s="7">
         <v>133</v>
@@ -9337,13 +9331,13 @@
         <v>94494</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,13 +9416,13 @@
         <v>45566</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -9437,13 +9431,13 @@
         <v>45566</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9471,7 +9465,7 @@
         <v>3164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>351</v>
@@ -9486,7 +9480,7 @@
         <v>3164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>351</v>
@@ -9520,13 +9514,13 @@
         <v>3586</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -9535,13 +9529,13 @@
         <v>3586</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9767,13 +9761,13 @@
         <v>25287</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -9782,13 +9776,13 @@
         <v>25287</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9816,13 +9810,13 @@
         <v>662</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -9831,13 +9825,13 @@
         <v>662</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9865,13 +9859,13 @@
         <v>17283</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -9880,13 +9874,13 @@
         <v>17283</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9914,13 +9908,13 @@
         <v>512155</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M35" s="7">
         <v>723</v>
@@ -9929,13 +9923,13 @@
         <v>512155</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9963,13 +9957,13 @@
         <v>17960</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -9978,13 +9972,13 @@
         <v>17960</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,13 +10006,13 @@
         <v>103583</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M37" s="7">
         <v>144</v>
@@ -10027,13 +10021,13 @@
         <v>103583</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10112,13 +10106,13 @@
         <v>130305</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M39" s="7">
         <v>164</v>
@@ -10127,13 +10121,13 @@
         <v>130305</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10161,13 +10155,13 @@
         <v>12868</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M40" s="7">
         <v>17</v>
@@ -10176,13 +10170,13 @@
         <v>12868</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10210,13 +10204,13 @@
         <v>74381</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M41" s="7">
         <v>126</v>
@@ -10225,13 +10219,13 @@
         <v>74381</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10259,13 +10253,13 @@
         <v>1476396</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M42" s="7">
         <v>2316</v>
@@ -10274,13 +10268,13 @@
         <v>1476396</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10308,13 +10302,13 @@
         <v>64691</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M43" s="7">
         <v>76</v>
@@ -10323,13 +10317,13 @@
         <v>64691</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10357,13 +10351,13 @@
         <v>340115</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M44" s="7">
         <v>463</v>
@@ -10372,13 +10366,13 @@
         <v>340115</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10432,7 +10426,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C392C74D-7829-47A7-8462-CD15C8B45362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4160B9-E36C-4E8A-A56B-2C3AD861BCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F986C4E-0D4E-492B-AAD9-2FD883BC7F81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F9D5E94-166F-4948-90B2-3252259C91E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="394">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,44%</t>
+    <t>19,01%</t>
   </si>
   <si>
     <t>Para realizar detección precoz de cáncer de útero</t>
@@ -92,13 +92,13 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>19,35%</t>
+    <t>15,35%</t>
   </si>
   <si>
     <t>Para realizar detección de cáncer de mama</t>
   </si>
   <si>
-    <t>20,37%</t>
+    <t>23,83%</t>
   </si>
   <si>
     <t>Para revisiones periódicas</t>
@@ -107,10 +107,10 @@
     <t>53,66%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -119,7 +119,7 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>16,58%</t>
+    <t>15,73%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -128,10 +128,10 @@
     <t>30,97%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,1081 +149,1078 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79630E6C-718E-4DB9-9A3F-DB76E02E42AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21776E3B-6533-462A-AAFA-3999E209B6FF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3253,10 +3250,10 @@
         <v>89</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3268,10 +3265,10 @@
         <v>89</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3296,13 @@
         <v>145698</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M35" s="7">
         <v>141</v>
@@ -3314,13 +3311,13 @@
         <v>145698</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3345,13 @@
         <v>16638</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -3363,13 +3360,13 @@
         <v>16638</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3394,13 @@
         <v>28789</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -3412,13 +3409,13 @@
         <v>28789</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,10 +3497,10 @@
         <v>87</v>
       </c>
       <c r="K39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M39" s="7">
         <v>3</v>
@@ -3515,10 +3512,10 @@
         <v>87</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,10 +3595,10 @@
         <v>105</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M41" s="7">
         <v>31</v>
@@ -3613,10 +3610,10 @@
         <v>105</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3641,13 @@
         <v>484313</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M42" s="7">
         <v>474</v>
@@ -3659,13 +3656,13 @@
         <v>484313</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3690,7 @@
         <v>30820</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>111</v>
@@ -3708,7 +3705,7 @@
         <v>30820</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>111</v>
@@ -3838,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472C26A4-51A4-479E-B8A2-D54AD0AA77A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B588161-F9DE-41C4-8886-474DE0D58723}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4372,10 +4369,10 @@
         <v>131</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4387,10 +4384,10 @@
         <v>131</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4415,13 @@
         <v>5262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4433,13 +4430,13 @@
         <v>5262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4464,13 @@
         <v>306469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>287</v>
@@ -4482,13 +4479,13 @@
         <v>306469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4513,13 @@
         <v>28391</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
@@ -4531,13 +4528,13 @@
         <v>28391</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4562,13 @@
         <v>83864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4580,13 +4577,13 @@
         <v>83864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4662,13 @@
         <v>7418</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -4680,13 +4677,13 @@
         <v>7418</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4711,13 @@
         <v>5663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4729,13 +4726,13 @@
         <v>5663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4760,13 @@
         <v>11353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4778,13 +4775,13 @@
         <v>11353</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4809,13 @@
         <v>557696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>503</v>
@@ -4827,13 +4824,13 @@
         <v>557696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4858,13 @@
         <v>50441</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -4876,13 +4873,13 @@
         <v>50441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4907,13 @@
         <v>145305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>135</v>
@@ -4925,13 +4922,13 @@
         <v>145305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5007,13 @@
         <v>10565</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -5025,13 +5022,13 @@
         <v>10565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5056,13 @@
         <v>3649</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5074,13 +5071,13 @@
         <v>3649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5105,13 @@
         <v>10165</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5123,13 +5120,13 @@
         <v>10165</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5154,13 @@
         <v>486869</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>433</v>
@@ -5172,13 +5169,13 @@
         <v>486869</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5203,13 @@
         <v>30203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5221,13 +5218,13 @@
         <v>30203</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5252,13 @@
         <v>98139</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>90</v>
@@ -5270,13 +5267,13 @@
         <v>98139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5352,13 @@
         <v>9913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -5370,13 +5367,13 @@
         <v>9913</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5401,13 @@
         <v>9717</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -5419,13 +5416,13 @@
         <v>9717</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5450,13 @@
         <v>16189</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -5468,13 +5465,13 @@
         <v>16189</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5499,13 @@
         <v>574733</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>544</v>
@@ -5517,13 +5514,13 @@
         <v>574733</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5548,13 @@
         <v>52650</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>50</v>
@@ -5566,13 +5563,13 @@
         <v>52650</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5597,13 @@
         <v>142242</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M37" s="7">
         <v>137</v>
@@ -5615,13 +5612,13 @@
         <v>142242</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5697,13 @@
         <v>43730</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M39" s="7">
         <v>41</v>
@@ -5715,13 +5712,13 @@
         <v>43730</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5746,13 @@
         <v>25095</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M40" s="7">
         <v>24</v>
@@ -5764,13 +5761,13 @@
         <v>25095</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5795,13 @@
         <v>42969</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M41" s="7">
         <v>39</v>
@@ -5813,13 +5810,13 @@
         <v>42969</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5844,13 @@
         <v>1975725</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M42" s="7">
         <v>1810</v>
@@ -5862,13 +5859,13 @@
         <v>1975725</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5893,13 @@
         <v>161686</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M43" s="7">
         <v>150</v>
@@ -5911,13 +5908,13 @@
         <v>161686</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5942,13 @@
         <v>491062</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M44" s="7">
         <v>460</v>
@@ -5960,13 +5957,13 @@
         <v>491062</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BFCF45-9ED6-4C2D-9EF6-CAC3007AD9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3454F908-197E-49A6-AB00-7AB9C86CDAD3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6058,7 +6055,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6178,13 +6175,13 @@
         <v>4639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -6193,13 +6190,13 @@
         <v>4639</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,7 +6224,7 @@
         <v>968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
@@ -6242,7 +6239,7 @@
         <v>968</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
@@ -6526,7 +6523,7 @@
         <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>230</v>
@@ -6541,7 +6538,7 @@
         <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>230</v>
@@ -6719,13 +6716,13 @@
         <v>25430</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -6734,13 +6731,13 @@
         <v>25430</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,10 +6765,10 @@
         <v>79140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>242</v>
@@ -6783,10 +6780,10 @@
         <v>79140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>242</v>
@@ -6920,10 +6917,10 @@
         <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6935,10 +6932,10 @@
         <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +6963,13 @@
         <v>33584</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6981,13 +6978,13 @@
         <v>33584</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7012,13 @@
         <v>604896</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -7030,13 +7027,13 @@
         <v>604896</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7061,13 @@
         <v>52047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7079,13 +7076,13 @@
         <v>52047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7110,13 @@
         <v>123943</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -7128,13 +7125,13 @@
         <v>123943</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7210,13 @@
         <v>7653</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -7228,13 +7225,13 @@
         <v>7653</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7259,13 @@
         <v>4941</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7277,13 +7274,13 @@
         <v>4941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7308,13 @@
         <v>9232</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -7326,13 +7323,13 @@
         <v>9232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,13 +7357,13 @@
         <v>514859</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>487</v>
@@ -7375,13 +7372,13 @@
         <v>514859</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7406,13 @@
         <v>33384</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -7424,13 +7421,13 @@
         <v>33384</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7455,13 @@
         <v>34566</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -7473,13 +7470,13 @@
         <v>34566</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7555,13 @@
         <v>19406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -7573,13 +7570,13 @@
         <v>19406</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,13 +7604,13 @@
         <v>4259</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -7622,13 +7619,13 @@
         <v>4259</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7653,13 @@
         <v>24855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -7671,13 +7668,13 @@
         <v>24855</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7705,13 +7702,13 @@
         <v>628308</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M35" s="7">
         <v>580</v>
@@ -7720,13 +7717,13 @@
         <v>628308</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7751,13 @@
         <v>33902</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -7769,13 +7766,13 @@
         <v>33902</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7800,13 @@
         <v>121359</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M37" s="7">
         <v>113</v>
@@ -7818,13 +7815,13 @@
         <v>121359</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7900,13 @@
         <v>70309</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M39" s="7">
         <v>67</v>
@@ -7918,13 +7915,13 @@
         <v>70309</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7949,13 @@
         <v>15082</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -7967,13 +7964,13 @@
         <v>15082</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +7998,13 @@
         <v>88776</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>81</v>
@@ -8016,13 +8013,13 @@
         <v>88776</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8047,13 @@
         <v>2079768</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>1956</v>
@@ -8065,13 +8062,13 @@
         <v>2079768</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8096,13 @@
         <v>147136</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="M43" s="7">
         <v>146</v>
@@ -8114,13 +8111,13 @@
         <v>147136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8145,13 @@
         <v>379385</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>362</v>
@@ -8163,13 +8160,13 @@
         <v>379385</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,7 +8241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718E61F0-C5D9-4971-B1F1-9E429C83EAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295B7442-1DEF-4254-81A9-6DE7E3A140C7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8261,7 +8258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8381,13 +8378,13 @@
         <v>4667</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -8396,13 +8393,13 @@
         <v>4667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,7 +8433,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8451,7 +8448,7 @@
         <v>33</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8479,13 +8476,13 @@
         <v>1602</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8494,13 +8491,13 @@
         <v>1602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8525,13 @@
         <v>48992</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -8543,13 +8540,13 @@
         <v>48992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8583,7 +8580,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -8598,7 +8595,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,13 +8623,13 @@
         <v>12527</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -8641,13 +8638,13 @@
         <v>12527</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,13 +8723,13 @@
         <v>9360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -8741,13 +8738,13 @@
         <v>9360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8775,13 +8772,13 @@
         <v>807</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -8790,13 +8787,13 @@
         <v>807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8821,13 @@
         <v>20647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -8839,13 +8836,13 @@
         <v>20647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8873,13 +8870,13 @@
         <v>215461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>414</v>
@@ -8888,13 +8885,13 @@
         <v>215461</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8922,13 +8919,13 @@
         <v>11404</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -8937,13 +8934,13 @@
         <v>11404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,13 +8968,13 @@
         <v>58593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -8986,13 +8983,13 @@
         <v>58593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9071,13 +9068,13 @@
         <v>45424</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -9086,13 +9083,13 @@
         <v>45424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,10 +9120,10 @@
         <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -9138,10 +9135,10 @@
         <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9169,13 +9166,13 @@
         <v>31263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -9184,13 +9181,13 @@
         <v>31263</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9218,13 +9215,13 @@
         <v>397291</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>638</v>
@@ -9233,13 +9230,13 @@
         <v>397291</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,10 +9267,10 @@
         <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -9285,10 +9282,10 @@
         <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9316,13 +9313,13 @@
         <v>94494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M23" s="7">
         <v>133</v>
@@ -9331,13 +9328,13 @@
         <v>94494</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9413,13 @@
         <v>45566</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -9431,13 +9428,13 @@
         <v>45566</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9465,7 +9462,7 @@
         <v>3164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>351</v>
@@ -9480,7 +9477,7 @@
         <v>3164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>351</v>
@@ -9514,13 +9511,13 @@
         <v>3586</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -9529,13 +9526,13 @@
         <v>3586</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>353</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9563,13 +9560,13 @@
         <v>302496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>444</v>
@@ -9578,13 +9575,13 @@
         <v>302496</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9612,10 +9609,10 @@
         <v>13213</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>359</v>
@@ -9627,10 +9624,10 @@
         <v>13213</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>359</v>
@@ -9761,13 +9758,13 @@
         <v>25287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -9776,13 +9773,13 @@
         <v>25287</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9859,13 +9856,13 @@
         <v>17283</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M34" s="7">
         <v>30</v>
@@ -9874,13 +9871,13 @@
         <v>17283</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9908,13 +9905,13 @@
         <v>512155</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M35" s="7">
         <v>723</v>
@@ -9923,13 +9920,13 @@
         <v>512155</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,13 +9954,13 @@
         <v>17960</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -9972,13 +9969,13 @@
         <v>17960</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10006,13 +10003,13 @@
         <v>103583</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M37" s="7">
         <v>144</v>
@@ -10021,13 +10018,13 @@
         <v>103583</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10106,13 +10103,13 @@
         <v>130305</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M39" s="7">
         <v>164</v>
@@ -10121,13 +10118,13 @@
         <v>130305</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10155,13 +10152,13 @@
         <v>12868</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M40" s="7">
         <v>17</v>
@@ -10170,13 +10167,13 @@
         <v>12868</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10204,13 +10201,13 @@
         <v>74381</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M41" s="7">
         <v>126</v>
@@ -10219,13 +10216,13 @@
         <v>74381</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10253,13 +10250,13 @@
         <v>1476396</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M42" s="7">
         <v>2316</v>
@@ -10268,13 +10265,13 @@
         <v>1476396</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10302,13 +10299,13 @@
         <v>64691</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>249</v>
+        <v>390</v>
       </c>
       <c r="M43" s="7">
         <v>76</v>
@@ -10317,13 +10314,13 @@
         <v>64691</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>249</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10351,13 +10348,13 @@
         <v>340115</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M44" s="7">
         <v>463</v>
@@ -10366,13 +10363,13 @@
         <v>340115</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
